--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.7659254937119</v>
+        <v>58.87627476136934</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.98720242749751</v>
+        <v>80.55711656640084</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.88035363443329</v>
+        <v>72.8688584239455</v>
       </c>
       <c r="AD2" t="n">
-        <v>46765.9254937119</v>
+        <v>58876.27476136934</v>
       </c>
       <c r="AE2" t="n">
-        <v>63987.2024274975</v>
+        <v>80557.11656640083</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.574465360507549e-06</v>
+        <v>1.401474402126451e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57880.35363443329</v>
+        <v>72868.85842394549</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>34.37231516493949</v>
+        <v>58.59283468315452</v>
       </c>
       <c r="AB3" t="n">
-        <v>47.02971800806242</v>
+        <v>80.16930134689379</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.54126772807963</v>
+        <v>72.518055744686</v>
       </c>
       <c r="AD3" t="n">
-        <v>34372.31516493949</v>
+        <v>58592.83468315452</v>
       </c>
       <c r="AE3" t="n">
-        <v>47029.71800806242</v>
+        <v>80169.30134689379</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.635019068676487e-06</v>
+        <v>1.412678423521159e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.990740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>42541.26772807963</v>
+        <v>72518.05574468599</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.40152621221472</v>
+        <v>57.07998699891121</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.12037113750591</v>
+        <v>78.09935640318373</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.19169010264371</v>
+        <v>70.64566344121701</v>
       </c>
       <c r="AD2" t="n">
-        <v>45401.52621221472</v>
+        <v>57079.98699891121</v>
       </c>
       <c r="AE2" t="n">
-        <v>62120.37113750591</v>
+        <v>78099.35640318373</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.710557503245594e-06</v>
+        <v>1.469751259002032e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.039930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>56191.69010264371</v>
+        <v>70645.66344121701</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.94496513244066</v>
+        <v>52.32315627761427</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.39095177528565</v>
+        <v>71.59085075374803</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.91363988667284</v>
+        <v>64.75832043621632</v>
       </c>
       <c r="AD2" t="n">
-        <v>41944.96513244067</v>
+        <v>52323.15627761427</v>
       </c>
       <c r="AE2" t="n">
-        <v>57390.95177528565</v>
+        <v>71590.85075374803</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.532453507309976e-06</v>
+        <v>1.604215470538514e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.329282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>51913.63988667284</v>
+        <v>64758.32043621632</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.85176627429555</v>
+        <v>53.73831097447516</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.63167710297715</v>
+        <v>73.5271278422111</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.03595213035645</v>
+        <v>66.50980195693906</v>
       </c>
       <c r="AD2" t="n">
-        <v>42851.76627429555</v>
+        <v>53738.31097447516</v>
       </c>
       <c r="AE2" t="n">
-        <v>58631.67710297715</v>
+        <v>73527.12784221111</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.833875901075135e-06</v>
+        <v>1.59054764981197e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.141203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>53035.95213035645</v>
+        <v>66509.80195693906</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.84610579259142</v>
+        <v>51.97793494415982</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.25568806513829</v>
+        <v>71.11850369522553</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.79128555517773</v>
+        <v>64.33105351801581</v>
       </c>
       <c r="AD2" t="n">
-        <v>41846.10579259141</v>
+        <v>51977.93494415982</v>
       </c>
       <c r="AE2" t="n">
-        <v>57255.6880651383</v>
+        <v>71118.50369522553</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.008219935238723e-06</v>
+        <v>1.560593692193796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.59837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>51791.28555517773</v>
+        <v>64331.0535180158</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.70509294475436</v>
+        <v>57.49707192632547</v>
       </c>
       <c r="AB2" t="n">
-        <v>62.53572453338548</v>
+        <v>78.67003040135999</v>
       </c>
       <c r="AC2" t="n">
-        <v>56.56740275337284</v>
+        <v>71.16187311395348</v>
       </c>
       <c r="AD2" t="n">
-        <v>45705.09294475436</v>
+        <v>57497.07192632547</v>
       </c>
       <c r="AE2" t="n">
-        <v>62535.72453338548</v>
+        <v>78670.03040136</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.698958370623923e-06</v>
+        <v>1.455691077341532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.022569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>56567.40275337284</v>
+        <v>71161.87311395348</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.19117260256004</v>
+        <v>61.70500971758916</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.72782369780833</v>
+        <v>84.42751652847754</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.21836122571367</v>
+        <v>76.36987284578331</v>
       </c>
       <c r="AD2" t="n">
-        <v>42191.17260256004</v>
+        <v>61705.00971758916</v>
       </c>
       <c r="AE2" t="n">
-        <v>57727.82369780833</v>
+        <v>84427.51652847754</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.561046124834638e-06</v>
+        <v>1.504163617909952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.841435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>52218.36122571367</v>
+        <v>76369.87284578331</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.22435511107628</v>
+        <v>55.53439443171254</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.50971370380537</v>
+        <v>75.98460846601188</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.73475155384315</v>
+        <v>68.7327440791008</v>
       </c>
       <c r="AD2" t="n">
-        <v>44224.35511107628</v>
+        <v>55534.39443171254</v>
       </c>
       <c r="AE2" t="n">
-        <v>60509.71370380538</v>
+        <v>75984.60846601188</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.775663005277764e-06</v>
+        <v>1.524019203119347e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54734.75155384315</v>
+        <v>68732.7440791008</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.91259340208689</v>
+        <v>56.47321932207073</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.45139169649611</v>
+        <v>77.26915009903034</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.58655712056514</v>
+        <v>69.8946908615299</v>
       </c>
       <c r="AD2" t="n">
-        <v>44912.59340208689</v>
+        <v>56473.21932207073</v>
       </c>
       <c r="AE2" t="n">
-        <v>61451.39169649611</v>
+        <v>77269.15009903035</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.777049508695494e-06</v>
+        <v>1.495295705330817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.039930555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>55586.55712056514</v>
+        <v>69894.69086152989</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.79310920924388</v>
+        <v>58.80071330259268</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.02439638634922</v>
+        <v>80.45373004496639</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.91399785405426</v>
+        <v>72.77533896701283</v>
       </c>
       <c r="AD2" t="n">
-        <v>46793.10920924388</v>
+        <v>58800.71330259268</v>
       </c>
       <c r="AE2" t="n">
-        <v>64024.39638634922</v>
+        <v>80453.73004496639</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.501558635950555e-06</v>
+        <v>1.397483477237715e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.042824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>57913.99785405426</v>
+        <v>72775.33896701282</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.78457431018472</v>
+        <v>58.79217840353352</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.01271856092332</v>
+        <v>80.44205221954046</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.90343454389706</v>
+        <v>72.76477565685562</v>
       </c>
       <c r="AD3" t="n">
-        <v>46784.57431018472</v>
+        <v>58792.17840353352</v>
       </c>
       <c r="AE3" t="n">
-        <v>64012.71856092332</v>
+        <v>80442.05221954046</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.535068534164838e-06</v>
+        <v>1.40372611711444e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.034143518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>57903.43454389706</v>
+        <v>72764.77565685562</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.35117418929031</v>
+        <v>54.38640633237863</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.31498904459488</v>
+        <v>74.41388050284344</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.65404973930074</v>
+        <v>67.31192418820612</v>
       </c>
       <c r="AD2" t="n">
-        <v>43351.17418929031</v>
+        <v>54386.40633237862</v>
       </c>
       <c r="AE2" t="n">
-        <v>59314.98904459488</v>
+        <v>74413.88050284344</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.808508774600904e-06</v>
+        <v>1.565213518490351e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.120949074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>53654.04973930074</v>
+        <v>67311.92418820612</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.23798701202839</v>
+        <v>52.79798467287971</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.79187723831367</v>
+        <v>72.24053191210025</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.27630158610967</v>
+        <v>65.34599693664885</v>
       </c>
       <c r="AD2" t="n">
-        <v>42237.98701202839</v>
+        <v>52797.98467287971</v>
       </c>
       <c r="AE2" t="n">
-        <v>57791.87723831367</v>
+        <v>72240.53191210025</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.665029705848013e-06</v>
+        <v>1.60357214996251e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.251157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>52276.30158610966</v>
+        <v>65345.99693664885</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.78690368141614</v>
+        <v>51.96703753829284</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.17468512481587</v>
+        <v>71.10359338375874</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.71801342179111</v>
+        <v>64.31756622574864</v>
       </c>
       <c r="AD2" t="n">
-        <v>41786.90368141614</v>
+        <v>51967.03753829284</v>
       </c>
       <c r="AE2" t="n">
-        <v>57174.68512481587</v>
+        <v>71103.59338375874</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.327604683052948e-06</v>
+        <v>1.592915571948453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.436342592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>51718.01342179111</v>
+        <v>64317.56622574863</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.96949972409664</v>
+        <v>62.48196657368812</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.47520637188514</v>
+        <v>85.49058317590895</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.55827439535962</v>
+        <v>77.33148190440761</v>
       </c>
       <c r="AD2" t="n">
-        <v>52969.49972409663</v>
+        <v>62481.96657368812</v>
       </c>
       <c r="AE2" t="n">
-        <v>72475.20637188514</v>
+        <v>85490.58317590895</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.831551292366315e-06</v>
+        <v>1.387050198806106e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.287037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>65558.27439535962</v>
+        <v>77331.48190440761</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.58745185544791</v>
+        <v>56.02545681058076</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.00651868815222</v>
+        <v>76.65650167692222</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.18414216775425</v>
+        <v>69.3405127449701</v>
       </c>
       <c r="AD2" t="n">
-        <v>44587.45185544791</v>
+        <v>56025.45681058076</v>
       </c>
       <c r="AE2" t="n">
-        <v>61006.51868815222</v>
+        <v>76656.50167692221</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.768993700313082e-06</v>
+        <v>1.507633977182958e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.063078703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>55184.14216775425</v>
+        <v>69340.5127449701</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.30472702632937</v>
+        <v>58.20630638443311</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.35617033778465</v>
+        <v>79.64043627615838</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.30954636170333</v>
+        <v>72.03966481403462</v>
       </c>
       <c r="AD2" t="n">
-        <v>46304.72702632938</v>
+        <v>58206.3063844331</v>
       </c>
       <c r="AE2" t="n">
-        <v>63356.17033778465</v>
+        <v>79640.43627615838</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.580075543233149e-06</v>
+        <v>1.422319484640736e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.037037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>57309.54636170332</v>
+        <v>72039.66481403462</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.37486591866546</v>
+        <v>58.27644527676919</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.45213746458838</v>
+        <v>79.73640340296211</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.39635452061565</v>
+        <v>72.12647297294694</v>
       </c>
       <c r="AD3" t="n">
-        <v>46374.86591866546</v>
+        <v>58276.44527676919</v>
       </c>
       <c r="AE3" t="n">
-        <v>63452.13746458838</v>
+        <v>79736.40340296211</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.574684308849626e-06</v>
+        <v>1.421307877610408e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.039930555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>57396.35452061565</v>
+        <v>72126.47297294694</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.216108629131</v>
+        <v>83.45124320957694</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.23155695799845</v>
+        <v>114.1816725683126</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.71542239922533</v>
+        <v>103.2843339934063</v>
       </c>
       <c r="AD2" t="n">
-        <v>65216.10862913101</v>
+        <v>83451.24320957695</v>
       </c>
       <c r="AE2" t="n">
-        <v>89231.55695799844</v>
+        <v>114181.6725683126</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.642743404320525e-06</v>
+        <v>1.161114891858303e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.273726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>80715.42239922534</v>
+        <v>103284.3339934063</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.55843990831118</v>
+        <v>53.28713553663337</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.23033502839158</v>
+        <v>72.90980970370076</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.67291358008205</v>
+        <v>65.95139979515649</v>
       </c>
       <c r="AD2" t="n">
-        <v>42558.43990831118</v>
+        <v>53287.13553663337</v>
       </c>
       <c r="AE2" t="n">
-        <v>58230.33502839158</v>
+        <v>72909.80970370075</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.75083295261886e-06</v>
+        <v>1.596116208597295e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.193287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>52672.91358008205</v>
+        <v>65951.3997951565</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.70250430529579</v>
+        <v>54.87856028804861</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.79569440890416</v>
+        <v>75.08726725729095</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.0888772583147</v>
+        <v>67.9210438559136</v>
       </c>
       <c r="AD2" t="n">
-        <v>43702.50430529579</v>
+        <v>54878.56028804861</v>
       </c>
       <c r="AE2" t="n">
-        <v>59795.69440890416</v>
+        <v>75087.26725729095</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.829725789433439e-06</v>
+        <v>1.551212833364179e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.092013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>54088.8772583147</v>
+        <v>67921.04385591359</v>
       </c>
     </row>
   </sheetData>
